--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il17c-Il17re.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il17c-Il17re.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Il17re</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.339016610542809</v>
+        <v>0.4489173333333333</v>
       </c>
       <c r="H2">
-        <v>0.339016610542809</v>
+        <v>1.346752</v>
       </c>
       <c r="I2">
-        <v>0.1251935632996342</v>
+        <v>0.08605735254748716</v>
       </c>
       <c r="J2">
-        <v>0.1251935632996342</v>
+        <v>0.08756402225771086</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0376024525503902</v>
+        <v>0.04977599999999999</v>
       </c>
       <c r="N2">
-        <v>0.0376024525503902</v>
+        <v>0.149328</v>
       </c>
       <c r="O2">
-        <v>0.1205233221053435</v>
+        <v>0.1087060257198422</v>
       </c>
       <c r="P2">
-        <v>0.1205233221053435</v>
+        <v>0.110893194900018</v>
       </c>
       <c r="Q2">
-        <v>0.01274785601173009</v>
+        <v>0.022345309184</v>
       </c>
       <c r="R2">
-        <v>0.01274785601173009</v>
+        <v>0.201107782656</v>
       </c>
       <c r="S2">
-        <v>0.01508874415507752</v>
+        <v>0.009354952779408666</v>
       </c>
       <c r="T2">
-        <v>0.01508874415507752</v>
+        <v>0.009710254186453845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.339016610542809</v>
+        <v>0.4489173333333333</v>
       </c>
       <c r="H3">
-        <v>0.339016610542809</v>
+        <v>1.346752</v>
       </c>
       <c r="I3">
-        <v>0.1251935632996342</v>
+        <v>0.08605735254748716</v>
       </c>
       <c r="J3">
-        <v>0.1251935632996342</v>
+        <v>0.08756402225771086</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.163767472661926</v>
+        <v>0.1894686666666666</v>
       </c>
       <c r="N3">
-        <v>0.163767472661926</v>
+        <v>0.568406</v>
       </c>
       <c r="O3">
-        <v>0.524907247248332</v>
+        <v>0.4137814559581098</v>
       </c>
       <c r="P3">
-        <v>0.524907247248332</v>
+        <v>0.4221067538595551</v>
       </c>
       <c r="Q3">
-        <v>0.05551989349900829</v>
+        <v>0.08505576859022221</v>
       </c>
       <c r="R3">
-        <v>0.05551989349900829</v>
+        <v>0.7655019173119999</v>
       </c>
       <c r="S3">
-        <v>0.0657150086848208</v>
+        <v>0.03560893663299958</v>
       </c>
       <c r="T3">
-        <v>0.0657150086848208</v>
+        <v>0.03696136519008816</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.339016610542809</v>
+        <v>0.4489173333333333</v>
       </c>
       <c r="H4">
-        <v>0.339016610542809</v>
+        <v>1.346752</v>
       </c>
       <c r="I4">
-        <v>0.1251935632996342</v>
+        <v>0.08605735254748716</v>
       </c>
       <c r="J4">
-        <v>0.1251935632996342</v>
+        <v>0.08756402225771086</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.110623238380733</v>
+        <v>0.07532</v>
       </c>
       <c r="N4">
-        <v>0.110623238380733</v>
+        <v>0.22596</v>
       </c>
       <c r="O4">
-        <v>0.3545694306463243</v>
+        <v>0.1644916798701887</v>
       </c>
       <c r="P4">
-        <v>0.3545694306463243</v>
+        <v>0.1678012584351768</v>
       </c>
       <c r="Q4">
-        <v>0.03750311532310528</v>
+        <v>0.03381245354666666</v>
       </c>
       <c r="R4">
-        <v>0.03750311532310528</v>
+        <v>0.30431208192</v>
       </c>
       <c r="S4">
-        <v>0.04438981045973587</v>
+        <v>0.01415571848571723</v>
       </c>
       <c r="T4">
-        <v>0.04438981045973587</v>
+        <v>0.01469335312848971</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.464813137411238</v>
+        <v>0.4489173333333333</v>
       </c>
       <c r="H5">
-        <v>0.464813137411238</v>
+        <v>1.346752</v>
       </c>
       <c r="I5">
-        <v>0.1716482648086864</v>
+        <v>0.08605735254748716</v>
       </c>
       <c r="J5">
-        <v>0.1716482648086864</v>
+        <v>0.08756402225771086</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0376024525503902</v>
+        <v>0.1162373333333333</v>
       </c>
       <c r="N5">
-        <v>0.0376024525503902</v>
+        <v>0.348712</v>
       </c>
       <c r="O5">
-        <v>0.1205233221053435</v>
+        <v>0.2538512244242045</v>
       </c>
       <c r="P5">
-        <v>0.1205233221053435</v>
+        <v>0.2589587202666284</v>
       </c>
       <c r="Q5">
-        <v>0.01747811394430408</v>
+        <v>0.05218095371377778</v>
       </c>
       <c r="R5">
-        <v>0.01747811394430408</v>
+        <v>0.469628583424</v>
       </c>
       <c r="S5">
-        <v>0.02068761910836061</v>
+        <v>0.02184576431488505</v>
       </c>
       <c r="T5">
-        <v>0.02068761910836061</v>
+        <v>0.02267546714525537</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.464813137411238</v>
+        <v>0.4489173333333333</v>
       </c>
       <c r="H6">
-        <v>0.464813137411238</v>
+        <v>1.346752</v>
       </c>
       <c r="I6">
-        <v>0.1716482648086864</v>
+        <v>0.08605735254748716</v>
       </c>
       <c r="J6">
-        <v>0.1716482648086864</v>
+        <v>0.08756402225771086</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.163767472661926</v>
+        <v>0.0270935</v>
       </c>
       <c r="N6">
-        <v>0.163767472661926</v>
+        <v>0.054187</v>
       </c>
       <c r="O6">
-        <v>0.524907247248332</v>
+        <v>0.05916961402765478</v>
       </c>
       <c r="P6">
-        <v>0.524907247248332</v>
+        <v>0.04024007253862154</v>
       </c>
       <c r="Q6">
-        <v>0.07612127277389898</v>
+        <v>0.01216274177066667</v>
       </c>
       <c r="R6">
-        <v>0.07612127277389898</v>
+        <v>0.072976450624</v>
       </c>
       <c r="S6">
-        <v>0.09009941817568033</v>
+        <v>0.005091980334476629</v>
       </c>
       <c r="T6">
-        <v>0.09009941817568033</v>
+        <v>0.003523582607423756</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,433 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.464813137411238</v>
+        <v>0.6702279999999999</v>
       </c>
       <c r="H7">
-        <v>0.464813137411238</v>
+        <v>2.010684</v>
       </c>
       <c r="I7">
-        <v>0.1716482648086864</v>
+        <v>0.1284825579242442</v>
       </c>
       <c r="J7">
-        <v>0.1716482648086864</v>
+        <v>0.1307319970783211</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.110623238380733</v>
+        <v>0.04977599999999999</v>
       </c>
       <c r="N7">
-        <v>0.110623238380733</v>
+        <v>0.149328</v>
       </c>
       <c r="O7">
-        <v>0.3545694306463243</v>
+        <v>0.1087060257198422</v>
       </c>
       <c r="P7">
-        <v>0.3545694306463243</v>
+        <v>0.110893194900018</v>
       </c>
       <c r="Q7">
-        <v>0.05141913450233978</v>
+        <v>0.033361268928</v>
       </c>
       <c r="R7">
-        <v>0.05141913450233978</v>
+        <v>0.300251420352</v>
       </c>
       <c r="S7">
-        <v>0.06086122752464546</v>
+        <v>0.013966828246264</v>
       </c>
       <c r="T7">
-        <v>0.06086122752464546</v>
+        <v>0.01449728883167485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.68214099616943</v>
+        <v>0.6702279999999999</v>
       </c>
       <c r="H8">
-        <v>1.68214099616943</v>
+        <v>2.010684</v>
       </c>
       <c r="I8">
-        <v>0.6211885162371854</v>
+        <v>0.1284825579242442</v>
       </c>
       <c r="J8">
-        <v>0.6211885162371854</v>
+        <v>0.1307319970783211</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0376024525503902</v>
+        <v>0.1894686666666666</v>
       </c>
       <c r="N8">
-        <v>0.0376024525503902</v>
+        <v>0.568406</v>
       </c>
       <c r="O8">
-        <v>0.1205233221053435</v>
+        <v>0.4137814559581098</v>
       </c>
       <c r="P8">
-        <v>0.1205233221053435</v>
+        <v>0.4221067538595551</v>
       </c>
       <c r="Q8">
-        <v>0.0632526269915271</v>
+        <v>0.1269872055226667</v>
       </c>
       <c r="R8">
-        <v>0.0632526269915271</v>
+        <v>1.142884849704</v>
       </c>
       <c r="S8">
-        <v>0.0748677036305947</v>
+        <v>0.05316369988311592</v>
       </c>
       <c r="T8">
-        <v>0.0748677036305947</v>
+        <v>0.05518285891230695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.68214099616943</v>
+        <v>0.6702279999999999</v>
       </c>
       <c r="H9">
-        <v>1.68214099616943</v>
+        <v>2.010684</v>
       </c>
       <c r="I9">
-        <v>0.6211885162371854</v>
+        <v>0.1284825579242442</v>
       </c>
       <c r="J9">
-        <v>0.6211885162371854</v>
+        <v>0.1307319970783211</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.163767472661926</v>
+        <v>0.07532</v>
       </c>
       <c r="N9">
-        <v>0.163767472661926</v>
+        <v>0.22596</v>
       </c>
       <c r="O9">
-        <v>0.524907247248332</v>
+        <v>0.1644916798701887</v>
       </c>
       <c r="P9">
-        <v>0.524907247248332</v>
+        <v>0.1678012584351768</v>
       </c>
       <c r="Q9">
-        <v>0.2754799796036821</v>
+        <v>0.05048157295999999</v>
       </c>
       <c r="R9">
-        <v>0.2754799796036821</v>
+        <v>0.45433415664</v>
       </c>
       <c r="S9">
-        <v>0.3260663540803368</v>
+        <v>0.02113431178697775</v>
       </c>
       <c r="T9">
-        <v>0.3260663540803368</v>
+        <v>0.02193699362748613</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.68214099616943</v>
+        <v>0.6702279999999999</v>
       </c>
       <c r="H10">
-        <v>1.68214099616943</v>
+        <v>2.010684</v>
       </c>
       <c r="I10">
-        <v>0.6211885162371854</v>
+        <v>0.1284825579242442</v>
       </c>
       <c r="J10">
-        <v>0.6211885162371854</v>
+        <v>0.1307319970783211</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.110623238380733</v>
+        <v>0.1162373333333333</v>
       </c>
       <c r="N10">
-        <v>0.110623238380733</v>
+        <v>0.348712</v>
       </c>
       <c r="O10">
-        <v>0.3545694306463243</v>
+        <v>0.2538512244242045</v>
       </c>
       <c r="P10">
-        <v>0.3545694306463243</v>
+        <v>0.2589587202666284</v>
       </c>
       <c r="Q10">
-        <v>0.1860838844092545</v>
+        <v>0.07790551544533333</v>
       </c>
       <c r="R10">
-        <v>0.1860838844092545</v>
+        <v>0.701149639008</v>
       </c>
       <c r="S10">
-        <v>0.2202544585262538</v>
+        <v>0.03261545464622316</v>
       </c>
       <c r="T10">
-        <v>0.2202544585262538</v>
+        <v>0.03385419066130264</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.221968878390643</v>
+        <v>0.6702279999999999</v>
       </c>
       <c r="H11">
-        <v>0.221968878390643</v>
+        <v>2.010684</v>
       </c>
       <c r="I11">
-        <v>0.08196965565449404</v>
+        <v>0.1284825579242442</v>
       </c>
       <c r="J11">
-        <v>0.08196965565449404</v>
+        <v>0.1307319970783211</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.0376024525503902</v>
+        <v>0.0270935</v>
       </c>
       <c r="N11">
-        <v>0.0376024525503902</v>
+        <v>0.054187</v>
       </c>
       <c r="O11">
-        <v>0.1205233221053435</v>
+        <v>0.05916961402765478</v>
       </c>
       <c r="P11">
-        <v>0.1205233221053435</v>
+        <v>0.04024007253862154</v>
       </c>
       <c r="Q11">
-        <v>0.008346574217347486</v>
+        <v>0.018158822318</v>
       </c>
       <c r="R11">
-        <v>0.008346574217347486</v>
+        <v>0.108952933908</v>
       </c>
       <c r="S11">
-        <v>0.009879255211310677</v>
+        <v>0.007602263361663325</v>
       </c>
       <c r="T11">
-        <v>0.009879255211310677</v>
+        <v>0.005260665045550499</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.221968878390643</v>
+        <v>2.117577333333333</v>
       </c>
       <c r="H12">
-        <v>0.221968878390643</v>
+        <v>6.352732</v>
       </c>
       <c r="I12">
-        <v>0.08196965565449404</v>
+        <v>0.4059391019012432</v>
       </c>
       <c r="J12">
-        <v>0.08196965565449404</v>
+        <v>0.4130461779490745</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.163767472661926</v>
+        <v>0.04977599999999999</v>
       </c>
       <c r="N12">
-        <v>0.163767472661926</v>
+        <v>0.149328</v>
       </c>
       <c r="O12">
-        <v>0.524907247248332</v>
+        <v>0.1087060257198422</v>
       </c>
       <c r="P12">
-        <v>0.524907247248332</v>
+        <v>0.110893194900018</v>
       </c>
       <c r="Q12">
-        <v>0.03635128222363801</v>
+        <v>0.105404529344</v>
       </c>
       <c r="R12">
-        <v>0.03635128222363801</v>
+        <v>0.9486407640959998</v>
       </c>
       <c r="S12">
-        <v>0.04302646630749415</v>
+        <v>0.04412802645196618</v>
       </c>
       <c r="T12">
-        <v>0.04302646630749415</v>
+        <v>0.04580401031401424</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.117577333333333</v>
+      </c>
+      <c r="H13">
+        <v>6.352732</v>
+      </c>
+      <c r="I13">
+        <v>0.4059391019012432</v>
+      </c>
+      <c r="J13">
+        <v>0.4130461779490745</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1894686666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.568406</v>
+      </c>
+      <c r="O13">
+        <v>0.4137814559581098</v>
+      </c>
+      <c r="P13">
+        <v>0.4221067538595551</v>
+      </c>
+      <c r="Q13">
+        <v>0.4012145539102221</v>
+      </c>
+      <c r="R13">
+        <v>3.610930985192</v>
+      </c>
+      <c r="S13">
+        <v>0.1679700726150239</v>
+      </c>
+      <c r="T13">
+        <v>0.17434958136818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.117577333333333</v>
+      </c>
+      <c r="H14">
+        <v>6.352732</v>
+      </c>
+      <c r="I14">
+        <v>0.4059391019012432</v>
+      </c>
+      <c r="J14">
+        <v>0.4130461779490745</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.07532</v>
+      </c>
+      <c r="N14">
+        <v>0.22596</v>
+      </c>
+      <c r="O14">
+        <v>0.1644916798701887</v>
+      </c>
+      <c r="P14">
+        <v>0.1678012584351768</v>
+      </c>
+      <c r="Q14">
+        <v>0.1594959247466667</v>
+      </c>
+      <c r="R14">
+        <v>1.43546332272</v>
+      </c>
+      <c r="S14">
+        <v>0.06677360479673122</v>
+      </c>
+      <c r="T14">
+        <v>0.06930966845169466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.117577333333333</v>
+      </c>
+      <c r="H15">
+        <v>6.352732</v>
+      </c>
+      <c r="I15">
+        <v>0.4059391019012432</v>
+      </c>
+      <c r="J15">
+        <v>0.4130461779490745</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.1162373333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.348712</v>
+      </c>
+      <c r="O15">
+        <v>0.2538512244242045</v>
+      </c>
+      <c r="P15">
+        <v>0.2589587202666284</v>
+      </c>
+      <c r="Q15">
+        <v>0.2461415423537778</v>
+      </c>
+      <c r="R15">
+        <v>2.215273881184</v>
+      </c>
+      <c r="S15">
+        <v>0.1030481380592925</v>
+      </c>
+      <c r="T15">
+        <v>0.1069619096527144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.221968878390643</v>
-      </c>
-      <c r="H13">
-        <v>0.221968878390643</v>
-      </c>
-      <c r="I13">
-        <v>0.08196965565449404</v>
-      </c>
-      <c r="J13">
-        <v>0.08196965565449404</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.110623238380733</v>
-      </c>
-      <c r="N13">
-        <v>0.110623238380733</v>
-      </c>
-      <c r="O13">
-        <v>0.3545694306463243</v>
-      </c>
-      <c r="P13">
-        <v>0.3545694306463243</v>
-      </c>
-      <c r="Q13">
-        <v>0.02455491614731203</v>
-      </c>
-      <c r="R13">
-        <v>0.02455491614731203</v>
-      </c>
-      <c r="S13">
-        <v>0.02906393413568921</v>
-      </c>
-      <c r="T13">
-        <v>0.02906393413568921</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.117577333333333</v>
+      </c>
+      <c r="H16">
+        <v>6.352732</v>
+      </c>
+      <c r="I16">
+        <v>0.4059391019012432</v>
+      </c>
+      <c r="J16">
+        <v>0.4130461779490745</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.0270935</v>
+      </c>
+      <c r="N16">
+        <v>0.054187</v>
+      </c>
+      <c r="O16">
+        <v>0.05916961402765478</v>
+      </c>
+      <c r="P16">
+        <v>0.04024007253862154</v>
+      </c>
+      <c r="Q16">
+        <v>0.05737258148066667</v>
+      </c>
+      <c r="R16">
+        <v>0.344235488884</v>
+      </c>
+      <c r="S16">
+        <v>0.02401925997822938</v>
+      </c>
+      <c r="T16">
+        <v>0.01662100816247114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.710495</v>
+      </c>
+      <c r="H17">
+        <v>5.131485</v>
+      </c>
+      <c r="I17">
+        <v>0.3279015095111365</v>
+      </c>
+      <c r="J17">
+        <v>0.3336423237204098</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.04977599999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.149328</v>
+      </c>
+      <c r="O17">
+        <v>0.1087060257198422</v>
+      </c>
+      <c r="P17">
+        <v>0.110893194900018</v>
+      </c>
+      <c r="Q17">
+        <v>0.08514159911999998</v>
+      </c>
+      <c r="R17">
+        <v>0.7662743920799999</v>
+      </c>
+      <c r="S17">
+        <v>0.03564486992649268</v>
+      </c>
+      <c r="T17">
+        <v>0.03699866323122231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.710495</v>
+      </c>
+      <c r="H18">
+        <v>5.131485</v>
+      </c>
+      <c r="I18">
+        <v>0.3279015095111365</v>
+      </c>
+      <c r="J18">
+        <v>0.3336423237204098</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.1894686666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.568406</v>
+      </c>
+      <c r="O18">
+        <v>0.4137814559581098</v>
+      </c>
+      <c r="P18">
+        <v>0.4221067538595551</v>
+      </c>
+      <c r="Q18">
+        <v>0.3240852069899999</v>
+      </c>
+      <c r="R18">
+        <v>2.916766862909999</v>
+      </c>
+      <c r="S18">
+        <v>0.13567956401638</v>
+      </c>
+      <c r="T18">
+        <v>0.140832678215781</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.710495</v>
+      </c>
+      <c r="H19">
+        <v>5.131485</v>
+      </c>
+      <c r="I19">
+        <v>0.3279015095111365</v>
+      </c>
+      <c r="J19">
+        <v>0.3336423237204098</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.07532</v>
+      </c>
+      <c r="N19">
+        <v>0.22596</v>
+      </c>
+      <c r="O19">
+        <v>0.1644916798701887</v>
+      </c>
+      <c r="P19">
+        <v>0.1678012584351768</v>
+      </c>
+      <c r="Q19">
+        <v>0.1288344834</v>
+      </c>
+      <c r="R19">
+        <v>1.1595103506</v>
+      </c>
+      <c r="S19">
+        <v>0.05393707013145751</v>
+      </c>
+      <c r="T19">
+        <v>0.05598560178752139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.710495</v>
+      </c>
+      <c r="H20">
+        <v>5.131485</v>
+      </c>
+      <c r="I20">
+        <v>0.3279015095111365</v>
+      </c>
+      <c r="J20">
+        <v>0.3336423237204098</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.1162373333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.348712</v>
+      </c>
+      <c r="O20">
+        <v>0.2538512244242045</v>
+      </c>
+      <c r="P20">
+        <v>0.2589587202666284</v>
+      </c>
+      <c r="Q20">
+        <v>0.19882337748</v>
+      </c>
+      <c r="R20">
+        <v>1.78941039732</v>
+      </c>
+      <c r="S20">
+        <v>0.08323819967994696</v>
+      </c>
+      <c r="T20">
+        <v>0.08639958917742148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.710495</v>
+      </c>
+      <c r="H21">
+        <v>5.131485</v>
+      </c>
+      <c r="I21">
+        <v>0.3279015095111365</v>
+      </c>
+      <c r="J21">
+        <v>0.3336423237204098</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.0270935</v>
+      </c>
+      <c r="N21">
+        <v>0.054187</v>
+      </c>
+      <c r="O21">
+        <v>0.05916961402765478</v>
+      </c>
+      <c r="P21">
+        <v>0.04024007253862154</v>
+      </c>
+      <c r="Q21">
+        <v>0.04634329628249999</v>
+      </c>
+      <c r="R21">
+        <v>0.278059777695</v>
+      </c>
+      <c r="S21">
+        <v>0.01940180575685932</v>
+      </c>
+      <c r="T21">
+        <v>0.01342579130846354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.2692725</v>
+      </c>
+      <c r="H22">
+        <v>0.5385450000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.05161947811588898</v>
+      </c>
+      <c r="J22">
+        <v>0.03501547899448369</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.04977599999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.149328</v>
+      </c>
+      <c r="O22">
+        <v>0.1087060257198422</v>
+      </c>
+      <c r="P22">
+        <v>0.110893194900018</v>
+      </c>
+      <c r="Q22">
+        <v>0.01340330796</v>
+      </c>
+      <c r="R22">
+        <v>0.08041984776</v>
+      </c>
+      <c r="S22">
+        <v>0.005611348315710658</v>
+      </c>
+      <c r="T22">
+        <v>0.003882978336652767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.2692725</v>
+      </c>
+      <c r="H23">
+        <v>0.5385450000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.05161947811588898</v>
+      </c>
+      <c r="J23">
+        <v>0.03501547899448369</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.1894686666666666</v>
+      </c>
+      <c r="N23">
+        <v>0.568406</v>
+      </c>
+      <c r="O23">
+        <v>0.4137814559581098</v>
+      </c>
+      <c r="P23">
+        <v>0.4221067538595551</v>
+      </c>
+      <c r="Q23">
+        <v>0.051018701545</v>
+      </c>
+      <c r="R23">
+        <v>0.30611220927</v>
+      </c>
+      <c r="S23">
+        <v>0.02135918281059032</v>
+      </c>
+      <c r="T23">
+        <v>0.01478027017319895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.2692725</v>
+      </c>
+      <c r="H24">
+        <v>0.5385450000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.05161947811588898</v>
+      </c>
+      <c r="J24">
+        <v>0.03501547899448369</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.07532</v>
+      </c>
+      <c r="N24">
+        <v>0.22596</v>
+      </c>
+      <c r="O24">
+        <v>0.1644916798701887</v>
+      </c>
+      <c r="P24">
+        <v>0.1678012584351768</v>
+      </c>
+      <c r="Q24">
+        <v>0.0202816047</v>
+      </c>
+      <c r="R24">
+        <v>0.1216896282</v>
+      </c>
+      <c r="S24">
+        <v>0.008490974669305023</v>
+      </c>
+      <c r="T24">
+        <v>0.005875641439984862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.2692725</v>
+      </c>
+      <c r="H25">
+        <v>0.5385450000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.05161947811588898</v>
+      </c>
+      <c r="J25">
+        <v>0.03501547899448369</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.1162373333333333</v>
+      </c>
+      <c r="N25">
+        <v>0.348712</v>
+      </c>
+      <c r="O25">
+        <v>0.2538512244242045</v>
+      </c>
+      <c r="P25">
+        <v>0.2589587202666284</v>
+      </c>
+      <c r="Q25">
+        <v>0.03129951734000001</v>
+      </c>
+      <c r="R25">
+        <v>0.18779710404</v>
+      </c>
+      <c r="S25">
+        <v>0.01310366772385685</v>
+      </c>
+      <c r="T25">
+        <v>0.009067563629934506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.2692725</v>
+      </c>
+      <c r="H26">
+        <v>0.5385450000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.05161947811588898</v>
+      </c>
+      <c r="J26">
+        <v>0.03501547899448369</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.0270935</v>
+      </c>
+      <c r="N26">
+        <v>0.054187</v>
+      </c>
+      <c r="O26">
+        <v>0.05916961402765478</v>
+      </c>
+      <c r="P26">
+        <v>0.04024007253862154</v>
+      </c>
+      <c r="Q26">
+        <v>0.007295534478750001</v>
+      </c>
+      <c r="R26">
+        <v>0.029182137915</v>
+      </c>
+      <c r="S26">
+        <v>0.003054304596426124</v>
+      </c>
+      <c r="T26">
+        <v>0.001409025414712603</v>
       </c>
     </row>
   </sheetData>
